--- a/MDT/DienstenCatalogus/Producten-Referentie_TOA.xlsx
+++ b/MDT/DienstenCatalogus/Producten-Referentie_TOA.xlsx
@@ -1868,9 +1868,6 @@
     <t>tarCodeProd</t>
   </si>
   <si>
-    <t>TarCodeProd</t>
-  </si>
-  <si>
     <t>[ProductComponent]</t>
   </si>
   <si>
@@ -1905,6 +1902,9 @@
   </si>
   <si>
     <t>gbrToa</t>
+  </si>
+  <si>
+    <t>TariefCode</t>
   </si>
 </sst>
 </file>
@@ -2815,48 +2815,48 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>616</v>
-      </c>
       <c r="D2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F2" t="s">
         <v>618</v>
       </c>
-      <c r="F2" t="s">
-        <v>619</v>
-      </c>
       <c r="G2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>608</v>
       </c>
       <c r="D3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -51955,7 +51955,7 @@
     </row>
     <row r="836" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A836" t="str">
-        <f t="shared" ref="A836:A899" si="1688">B836&amp;"_"&amp;E836</f>
+        <f t="shared" ref="A836:A850" si="1688">B836&amp;"_"&amp;E836</f>
         <v>TW050980_2</v>
       </c>
       <c r="B836" s="4" t="str">
@@ -52848,8 +52848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="H275" sqref="H275"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52917,7 +52917,7 @@
         <v>609</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>612</v>
